--- a/ope.ed.gov/2008/criminal-offenses-noncampus-virginia-colleges-and-universities-crime-2008.xlsx
+++ b/ope.ed.gov/2008/criminal-offenses-noncampus-virginia-colleges-and-universities-crime-2008.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_Noncampus" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-noncampus-vir" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -445,52 +442,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2008.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>1137.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -498,19 +537,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B3">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>1137.0</v>
+        <v>842.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -545,19 +584,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231420.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
-        <v>842.0</v>
+        <v>4466.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -592,19 +631,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>4466.0</v>
+        <v>736.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -639,19 +678,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>736.0</v>
+        <v>1514.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -686,19 +725,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>1514.0</v>
+        <v>560.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -733,19 +772,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231828.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>560.0</v>
+        <v>4904.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -780,19 +819,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>4904.0</v>
+        <v>7892.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -827,19 +866,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231624.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>7892.0</v>
+        <v>1387.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -874,19 +913,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B11">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
-        <v>1387.0</v>
+        <v>747.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -921,19 +960,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B12">
-        <v>231970.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
-        <v>747.0</v>
+        <v>676.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -968,19 +1007,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B13">
-        <v>442806.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
-        <v>676.0</v>
+        <v>1397.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -1015,19 +1054,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>1397.0</v>
+        <v>30613.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1062,19 +1101,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>30613.0</v>
+        <v>1120.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1095,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M15">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N15">
         <v>0.0</v>
@@ -1109,19 +1148,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B16">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>1120.0</v>
+        <v>5427.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1139,13 +1178,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L16">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="M16">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O16">
         <v>0.0</v>
@@ -1156,19 +1195,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232265.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>5427.0</v>
+        <v>18454.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1186,13 +1225,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L17">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M17">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N17">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O17">
         <v>0.0</v>
@@ -1203,19 +1242,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B18">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>18454.0</v>
+        <v>995.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1230,13 +1269,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K18">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L18">
         <v>0.0</v>
       </c>
       <c s="1" r="M18">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N18">
         <v>0.0</v>
@@ -1250,19 +1289,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>995.0</v>
+        <v>33604.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1277,19 +1316,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K19">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L19">
         <v>0.0</v>
       </c>
       <c s="1" r="M19">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N19">
         <v>0.0</v>
       </c>
       <c s="1" r="O19">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -1297,19 +1336,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>33604.0</v>
+        <v>4727.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1330,13 +1369,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M20">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N20">
         <v>0.0</v>
       </c>
       <c s="1" r="O20">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1344,19 +1383,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>4727.0</v>
+        <v>5867.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1391,19 +1430,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232575.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>5867.0</v>
+        <v>3548.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1418,7 +1457,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K22">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L22">
         <v>0.0</v>
@@ -1427,7 +1466,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N22">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O22">
         <v>0.0</v>
@@ -1438,19 +1477,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>3548.0</v>
+        <v>3075.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1465,7 +1504,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K23">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L23">
         <v>0.0</v>
@@ -1474,7 +1513,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N23">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O23">
         <v>0.0</v>
@@ -1485,19 +1524,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>3075.0</v>
+        <v>4889.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1532,19 +1571,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>4889.0</v>
+        <v>6325.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1571,7 +1610,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -1579,19 +1618,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>6325.0</v>
+        <v>42663.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1618,7 +1657,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O26">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1629,13 +1668,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
         <v>42663.0</v>
@@ -1647,22 +1686,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J27">
         <v>0.0</v>
       </c>
       <c s="1" r="K27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L27">
         <v>0.0</v>
       </c>
       <c s="1" r="M27">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O27">
         <v>0.0</v>
@@ -1676,13 +1715,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
         <v>42663.0</v>
@@ -1694,22 +1733,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J28">
         <v>0.0</v>
       </c>
       <c s="1" r="K28">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L28">
         <v>0.0</v>
       </c>
       <c s="1" r="M28">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O28">
         <v>0.0</v>
@@ -1723,13 +1762,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
         <v>42663.0</v>
@@ -1770,13 +1809,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
         <v>42663.0</v>
@@ -1817,13 +1856,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
         <v>42663.0</v>
@@ -1861,19 +1900,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B32">
-        <v>232946.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>42663.0</v>
+        <v>3109.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1908,19 +1947,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233019.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>3109.0</v>
+        <v>4874.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -1955,19 +1994,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>4874.0</v>
+        <v>9157.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -1988,13 +2027,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M34">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N34">
         <v>0.0</v>
       </c>
       <c s="1" r="O34">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -2002,19 +2041,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>9157.0</v>
+        <v>568.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2035,13 +2074,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M35">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N35">
         <v>0.0</v>
       </c>
       <c s="1" r="O35">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -2049,19 +2088,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233301.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>568.0</v>
+        <v>644.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2096,19 +2135,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233499.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>644.0</v>
+        <v>3511.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2143,19 +2182,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233541.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>3511.0</v>
+        <v>5606.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2190,19 +2229,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>5606.0</v>
+        <v>3984.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2237,19 +2276,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B40">
-        <v>233648.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>3984.0</v>
+        <v>1892.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2264,16 +2303,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K40">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L40">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M40">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O40">
         <v>0.0</v>
@@ -2284,19 +2323,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B41">
-        <v>440341.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>1892.0</v>
+        <v>10557.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2311,16 +2350,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K41">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L41">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M41">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N41">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O41">
         <v>0.0</v>
@@ -2331,19 +2370,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B42">
-        <v>233754.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
-        <v>10557.0</v>
+        <v>5084.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -2364,7 +2403,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M42">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N42">
         <v>0.0</v>
@@ -2378,19 +2417,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B43">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
-        <v>5084.0</v>
+        <v>4249.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -2425,19 +2464,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B44">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>4249.0</v>
+        <v>24541.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -2446,7 +2485,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I44">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J44">
         <v>0.0</v>
@@ -2458,7 +2497,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M44">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N44">
         <v>0.0</v>
@@ -2472,19 +2511,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B45">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>24541.0</v>
+        <v>32044.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2493,7 +2532,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J45">
         <v>0.0</v>
@@ -2505,7 +2544,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M45">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N45">
         <v>0.0</v>
@@ -2522,13 +2561,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
         <v>32044.0</v>
@@ -2566,19 +2605,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B47">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>32044.0</v>
+        <v>542.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2613,19 +2652,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B48">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>542.0</v>
+        <v>1428.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -2660,19 +2699,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B49">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
-        <v>1428.0</v>
+        <v>30739.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -2681,7 +2720,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I49">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J49">
         <v>0.0</v>
@@ -2693,7 +2732,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M49">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N49">
         <v>0.0</v>
@@ -2707,19 +2746,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B50">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>30739.0</v>
+        <v>5042.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -2728,7 +2767,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I50">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J50">
         <v>0.0</v>
@@ -2740,7 +2779,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M50">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N50">
         <v>0.0</v>
@@ -2754,19 +2793,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B51">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>5042.0</v>
+        <v>1501.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2801,19 +2840,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B52">
-        <v>234164.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>1501.0</v>
+        <v>8532.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2834,7 +2873,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M52">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N52">
         <v>0.0</v>
@@ -2848,19 +2887,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B53">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>8532.0</v>
+        <v>2155.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2881,7 +2920,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M53">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N53">
         <v>0.0</v>
@@ -2895,19 +2934,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B54">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>2155.0</v>
+        <v>3363.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2934,53 +2973,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O54">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c s="1" r="A55">
-        <v>2008.0</v>
-      </c>
-      <c s="1" r="B55">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C55">
-        <v>120</v>
-      </c>
-      <c s="1" r="D55">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E55">
-        <v>121</v>
-      </c>
-      <c s="1" r="F55">
-        <v>3363.0</v>
-      </c>
-      <c s="1" r="G55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O55">
         <v>0.0</v>
       </c>
     </row>
